--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55F44DA-ECA6-E544-9E0A-14C9387B7BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B7DCB-026D-8248-B0A8-15BDBA0F9C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,6 +412,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B7DCB-026D-8248-B0A8-15BDBA0F9C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D8D24-7BD9-4441-BE58-0F0ECFA5952B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,6 +423,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D8D24-7BD9-4441-BE58-0F0ECFA5952B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63F4DB-0028-5345-ABE6-7F152A4653D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,6 +434,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63F4DB-0028-5345-ABE6-7F152A4653D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8B85E7-8F83-C643-97BC-F708A4EF7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,6 +445,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8B85E7-8F83-C643-97BC-F708A4EF7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AC9D5-B146-5E4B-B5CC-670802486732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>session</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>help</t>
+  </si>
+  <si>
+    <t>freq_2</t>
+  </si>
+  <si>
+    <t>help_2</t>
   </si>
 </sst>
 </file>
@@ -393,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +417,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -423,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -434,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -445,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AC9D5-B146-5E4B-B5CC-670802486732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B88BC9-4435-5E45-A54A-1F8792916E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +468,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B88BC9-4435-5E45-A54A-1F8792916E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7729D0-3DA4-F641-8789-9B7A3BC066D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35240" yWindow="6780" windowWidth="27640" windowHeight="15920" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
+    <workbookView xWindow="37740" yWindow="7100" windowWidth="28800" windowHeight="16160" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,6 +485,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/KAHI_strategy.xlsx
+++ b/data/KAHI_strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7729D0-3DA4-F641-8789-9B7A3BC066D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66103007-F0E6-CE47-8016-7FBB9DAE94C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37740" yWindow="7100" windowWidth="28800" windowHeight="16160" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
+    <workbookView xWindow="36620" yWindow="6660" windowWidth="28800" windowHeight="16160" xr2:uid="{422B1A0C-E1E2-D844-A423-453C58228ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB64791-6C28-004E-A47E-B88BDB5885C0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,6 +502,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
